--- a/02-lab/output/excel/deformed_simplex_method_custom_point.xlsx
+++ b/02-lab/output/excel/deformed_simplex_method_custom_point.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,6 +394,204 @@
         <v>-0.0046288494662346732</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.39397285841684893</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.34099433294687309</v>
+      </c>
+      <c r="C31" s="0">
+        <v>-0.0044506466611495821</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.27831071534737412</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.31573146843522343</v>
+      </c>
+      <c r="C32" s="0">
+        <v>-0.0044590127862502741</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.33185839385392346</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.37703067186178041</v>
+      </c>
+      <c r="C33" s="0">
+        <v>-0.0045530038757724163</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.36291562613538619</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.35901250240432675</v>
+      </c>
+      <c r="C34" s="0">
+        <v>-0.0045287913645162756</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.33185839385392346</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.37703067186178041</v>
+      </c>
+      <c r="C35" s="0">
+        <v>-0.0045530038757724163</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.30508455460064876</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.34638107014850195</v>
+      </c>
+      <c r="C36" s="0">
+        <v>-0.0046039436785600563</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.33185839385392346</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.37703067186178041</v>
+      </c>
+      <c r="C37" s="0">
+        <v>-0.0045530038757724163</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.34069355018133618</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.36035918670473399</v>
+      </c>
+      <c r="C38" s="0">
+        <v>-0.0045877960664201679</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.30508455460064876</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.34638107014850195</v>
+      </c>
+      <c r="C39" s="0">
+        <v>-0.0046039436785600563</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.30495036946513049</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.30604904155629309</v>
+      </c>
+      <c r="C40" s="0">
+        <v>-0.0045381668545978601</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.34069355018133618</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.36035918670473399</v>
+      </c>
+      <c r="C41" s="0">
+        <v>-0.0045877960664201679</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.30508455460064876</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.34638107014850195</v>
+      </c>
+      <c r="C42" s="0">
+        <v>-0.0046039436785600563</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.34069355018133618</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.36035918670473399</v>
+      </c>
+      <c r="C43" s="0">
+        <v>-0.0045877960664201679</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.30508455460064876</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.34638107014850195</v>
+      </c>
+      <c r="C44" s="0">
+        <v>-0.0046039436785600563</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.31391971092806148</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.32970958499145553</v>
+      </c>
+      <c r="C45" s="0">
+        <v>-0.004610650116038912</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.30950213276435512</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.33804532756997874</v>
+      </c>
+      <c r="C46" s="0">
+        <v>-0.0046094514063054429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.31391971092806148</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.32970958499145553</v>
+      </c>
+      <c r="C47" s="0">
+        <v>-0.004610650116038912</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.32730663055469883</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.34503438584809476</v>
+      </c>
+      <c r="C48" s="0">
+        <v>-0.0046253997727040939</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>